--- a/StructureDefinition-sd-clinical-study.xlsx
+++ b/StructureDefinition-sd-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T07:12:54+00:00</t>
+    <t>2022-07-25T13:12:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-clinical-study.xlsx
+++ b/StructureDefinition-sd-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:12:11+00:00</t>
+    <t>2022-07-25T14:21:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-clinical-study.xlsx
+++ b/StructureDefinition-sd-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:21:42+00:00</t>
+    <t>2022-07-25T14:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-clinical-study.xlsx
+++ b/StructureDefinition-sd-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:41:10+00:00</t>
+    <t>2022-08-01T09:41:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-clinical-study.xlsx
+++ b/StructureDefinition-sd-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:41:51+00:00</t>
+    <t>2022-08-01T09:45:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-clinical-study.xlsx
+++ b/StructureDefinition-sd-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:45:26+00:00</t>
+    <t>2022-08-01T09:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-clinical-study.xlsx
+++ b/StructureDefinition-sd-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:59:26+00:00</t>
+    <t>2022-08-03T15:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-clinical-study.xlsx
+++ b/StructureDefinition-sd-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:17:46+00:00</t>
+    <t>2022-08-08T13:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
